--- a/tables/RQ3_Table1.xlsx
+++ b/tables/RQ3_Table1.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04411346172089936</v>
+        <v>0.044113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001249999999999973</v>
+        <v>0.00125</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.196429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02222222222222225</v>
+        <v>0.022222</v>
       </c>
     </row>
   </sheetData>
